--- a/COVID WEB APPLICATION.xlsx
+++ b/COVID WEB APPLICATION.xlsx
@@ -100,9 +100,6 @@
     <t>ENTER OTP</t>
   </si>
   <si>
-    <t>ENTER YOUR ID NUYMBER</t>
-  </si>
-  <si>
     <t>ENTER YOUR DETAIL</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>USER  TESTING</t>
+  </si>
+  <si>
+    <t>ENTER YOUR ID NUMBER</t>
   </si>
 </sst>
 </file>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,19 +519,19 @@
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -677,22 +677,22 @@
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D26" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D27" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D28" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D29" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
